--- a/static/xlsx/tr/Programs_tr.xlsx
+++ b/static/xlsx/tr/Programs_tr.xlsx
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
